--- a/test/NovVacationGrouped2.xlsx
+++ b/test/NovVacationGrouped2.xlsx
@@ -1,13 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NazarethJ\OneDrive - Broadridge Financial Solutions, Inc\personal\projects\gp\groupInXLS\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D691F638-192B-415D-AD4D-A76F8EAFDDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" r:id="rId3" sheetId="1"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -137,17 +158,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_($* #,##0.00_);_($* (#,##0.00);_($* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$EUR-x-euro2] #,##0.00_);([$EUR-x-euro2] #,##0.00)"/>
-    <numFmt numFmtId="166" formatCode="[$GBP-en-GB] #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$INR] #,##0.00"/>
-    <numFmt numFmtId="168" formatCode="[$MAD] #,##0.00_);([$MAD] #,##0.00)"/>
+    <numFmt numFmtId="164" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$EUR-2]\ #,##0.00_);\([$EUR-2]\ #,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="[$GBP-809]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$INR]\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$MAD]\ #,##0.00_);\([$MAD]\ #,##0.00\)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -159,7 +180,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -174,44 +195,339 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:T1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="20" width="12.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I1" t="s">
         <v>0</v>
       </c>
@@ -225,7 +541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -287,7 +603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -300,8 +616,8 @@
       <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="n" s="1">
-        <v>10.0</v>
+      <c r="E3" s="1">
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -309,44 +625,44 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n" s="1">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>5.26</v>
       </c>
-      <c r="K3" t="n" s="1">
+      <c r="K3" s="1">
         <v>5.26</v>
       </c>
-      <c r="L3" t="n" s="1">
+      <c r="L3" s="1">
         <v>1188.03</v>
       </c>
-      <c r="M3" t="n" s="1">
+      <c r="M3" s="1">
         <v>-196.09</v>
       </c>
-      <c r="N3" t="n" s="1">
+      <c r="N3" s="1">
         <v>-991.94</v>
       </c>
-      <c r="O3" t="n" s="1">
+      <c r="O3" s="1">
         <v>929.8</v>
       </c>
-      <c r="P3" t="n" s="1">
+      <c r="P3" s="1">
         <v>999.36</v>
       </c>
-      <c r="Q3" t="n" s="1">
+      <c r="Q3" s="1">
         <v>991.94</v>
       </c>
-      <c r="R3" t="n" s="1">
+      <c r="R3" s="1">
         <v>2117.83</v>
       </c>
-      <c r="S3" t="n" s="1">
+      <c r="S3" s="1">
         <v>803.27</v>
       </c>
-      <c r="T3" t="n" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -359,8 +675,8 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="n" s="2">
-        <v>100.0</v>
+      <c r="E4" s="2">
+        <v>100</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -368,44 +684,44 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" t="n" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n" s="2">
-        <v>2.55</v>
-      </c>
-      <c r="K4" t="n" s="2">
-        <v>2.55</v>
-      </c>
-      <c r="L4" t="n" s="2">
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L4" s="2">
         <v>255.74</v>
       </c>
-      <c r="M4" t="n" s="2">
+      <c r="M4" s="2">
         <v>-401.01</v>
       </c>
-      <c r="N4" t="n" s="2">
-        <v>145.27</v>
-      </c>
-      <c r="O4" t="n" s="2">
+      <c r="N4" s="2">
+        <v>145.27000000000001</v>
+      </c>
+      <c r="O4" s="2">
         <v>451.46</v>
       </c>
-      <c r="P4" t="n" s="2">
+      <c r="P4" s="2">
         <v>506.51</v>
       </c>
-      <c r="Q4" t="n" s="2">
+      <c r="Q4" s="2">
         <v>495.51</v>
       </c>
-      <c r="R4" t="n" s="2">
+      <c r="R4" s="2">
         <v>707.2</v>
       </c>
-      <c r="S4" t="n" s="2">
+      <c r="S4" s="2">
         <v>105.5</v>
       </c>
-      <c r="T4" t="n" s="2">
+      <c r="T4" s="2">
         <v>640.78</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -418,8 +734,8 @@
       <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="n" s="3">
-        <v>10.0</v>
+      <c r="E5" s="3">
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -430,44 +746,44 @@
       <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="n" s="3">
+      <c r="I5" s="3">
         <v>4.45</v>
       </c>
-      <c r="J5" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="K5" t="n" s="3">
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>4.45</v>
       </c>
-      <c r="L5" t="n" s="3">
+      <c r="L5" s="3">
         <v>176.02</v>
       </c>
-      <c r="M5" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="N5" t="n" s="3">
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
         <v>-176.02</v>
       </c>
-      <c r="O5" t="n" s="3">
+      <c r="O5" s="3">
         <v>230.24</v>
       </c>
-      <c r="P5" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="Q5" t="n" s="3">
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>263.83</v>
       </c>
-      <c r="R5" t="n" s="3">
+      <c r="R5" s="3">
         <v>406.25</v>
       </c>
-      <c r="S5" t="n" s="3">
+      <c r="S5" s="3">
         <v>87.81</v>
       </c>
-      <c r="T5" t="n" s="3">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -480,8 +796,8 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="n" s="4">
-        <v>1000.0</v>
+      <c r="E6" s="4">
+        <v>1000</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -489,44 +805,44 @@
       <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="n" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="J6" t="n" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="K6" t="n" s="4">
-        <v>500.0</v>
-      </c>
-      <c r="L6" t="n" s="4">
+      <c r="I6" s="4">
+        <v>500</v>
+      </c>
+      <c r="J6" s="4">
+        <v>500</v>
+      </c>
+      <c r="K6" s="4">
+        <v>500</v>
+      </c>
+      <c r="L6" s="4">
         <v>23833.33</v>
       </c>
-      <c r="M6" t="n" s="4">
+      <c r="M6" s="4">
         <v>4833.33</v>
       </c>
-      <c r="N6" t="n" s="4">
+      <c r="N6" s="4">
         <v>-28666.67</v>
       </c>
-      <c r="O6" t="n" s="4">
+      <c r="O6" s="4">
         <v>2166.67</v>
       </c>
-      <c r="P6" t="n" s="4">
+      <c r="P6" s="4">
         <v>2166.67</v>
       </c>
-      <c r="Q6" t="n" s="4">
+      <c r="Q6" s="4">
         <v>2166.67</v>
       </c>
-      <c r="R6" t="n" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="S6" t="n" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="T6" t="n" s="4">
-        <v>6500.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -539,8 +855,8 @@
       <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="n" s="5">
-        <v>1000.0</v>
+      <c r="E7" s="5">
+        <v>1000</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -548,49 +864,49 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" t="n" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="J7" t="n" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="K7" t="n" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="L7" t="n" s="5">
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
         <v>-864.67</v>
       </c>
-      <c r="M7" t="n" s="5">
+      <c r="M7" s="5">
         <v>-52.17</v>
       </c>
-      <c r="N7" t="n" s="5">
+      <c r="N7" s="5">
         <v>916.83</v>
       </c>
-      <c r="O7" t="n" s="5">
+      <c r="O7" s="5">
         <v>879.67</v>
       </c>
-      <c r="P7" t="n" s="5">
+      <c r="P7" s="5">
         <v>2491.17</v>
       </c>
-      <c r="Q7" t="n" s="5">
+      <c r="Q7" s="5">
         <v>2491.17</v>
       </c>
-      <c r="R7" t="n" s="5">
-        <v>15.0</v>
-      </c>
-      <c r="S7" t="n" s="5">
-        <v>2439.0</v>
-      </c>
-      <c r="T7" t="n" s="5">
-        <v>3408.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="R7" s="5">
+        <v>15</v>
+      </c>
+      <c r="S7" s="5">
+        <v>2439</v>
+      </c>
+      <c r="T7" s="5">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -603,8 +919,8 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" t="n" s="6">
-        <v>9.20454336</v>
+      <c r="E10" s="2">
+        <v>9.2045433600000006</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -612,44 +928,44 @@
       <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="n" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J10" t="n" s="6">
-        <v>4.84158980736</v>
-      </c>
-      <c r="K10" t="n" s="6">
-        <v>4.84158980736</v>
-      </c>
-      <c r="L10" t="n" s="6">
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4.8415898073600001</v>
+      </c>
+      <c r="K10" s="2">
+        <v>4.8415898073600001</v>
+      </c>
+      <c r="L10" s="2">
         <v>1093.52736479808</v>
       </c>
-      <c r="M10" t="n" s="6">
+      <c r="M10" s="2">
         <v>-180.49189074624002</v>
       </c>
-      <c r="N10" t="n" s="6">
-        <v>-913.0354740518401</v>
-      </c>
-      <c r="O10" t="n" s="6">
-        <v>855.8384416128</v>
-      </c>
-      <c r="P10" t="n" s="6">
-        <v>919.8652452249601</v>
-      </c>
-      <c r="Q10" t="n" s="6">
-        <v>913.0354740518401</v>
-      </c>
-      <c r="R10" t="n" s="6">
-        <v>1949.36580641088</v>
-      </c>
-      <c r="S10" t="n" s="6">
-        <v>739.37335447872</v>
-      </c>
-      <c r="T10" t="n" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="N10" s="2">
+        <v>-913.03547405184008</v>
+      </c>
+      <c r="O10" s="2">
+        <v>855.83844161280001</v>
+      </c>
+      <c r="P10" s="2">
+        <v>919.86524522496006</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>913.03547405184008</v>
+      </c>
+      <c r="R10" s="2">
+        <v>1949.3658064108799</v>
+      </c>
+      <c r="S10" s="2">
+        <v>739.37335447871999</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -662,8 +978,8 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="n" s="7">
-        <v>100.0</v>
+      <c r="E11" s="2">
+        <v>100</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
@@ -671,44 +987,44 @@
       <c r="G11" t="s">
         <v>22</v>
       </c>
-      <c r="I11" t="n" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J11" t="n" s="7">
-        <v>2.55</v>
-      </c>
-      <c r="K11" t="n" s="7">
-        <v>2.55</v>
-      </c>
-      <c r="L11" t="n" s="7">
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="L11" s="2">
         <v>255.74</v>
       </c>
-      <c r="M11" t="n" s="7">
+      <c r="M11" s="2">
         <v>-401.01</v>
       </c>
-      <c r="N11" t="n" s="7">
-        <v>145.27</v>
-      </c>
-      <c r="O11" t="n" s="7">
+      <c r="N11" s="2">
+        <v>145.27000000000001</v>
+      </c>
+      <c r="O11" s="2">
         <v>451.46</v>
       </c>
-      <c r="P11" t="n" s="7">
+      <c r="P11" s="2">
         <v>506.51</v>
       </c>
-      <c r="Q11" t="n" s="7">
+      <c r="Q11" s="2">
         <v>495.51</v>
       </c>
-      <c r="R11" t="n" s="7">
+      <c r="R11" s="2">
         <v>707.2</v>
       </c>
-      <c r="S11" t="n" s="7">
+      <c r="S11" s="2">
         <v>105.5</v>
       </c>
-      <c r="T11" t="n" s="7">
+      <c r="T11" s="2">
         <v>640.78</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -721,7 +1037,7 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" t="n" s="8">
+      <c r="E12" s="2">
         <v>11.36995821</v>
       </c>
       <c r="F12" t="s">
@@ -733,44 +1049,44 @@
       <c r="H12" t="s">
         <v>28</v>
       </c>
-      <c r="I12" t="n" s="8">
-        <v>5.05963140345</v>
-      </c>
-      <c r="J12" t="n" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="K12" t="n" s="8">
-        <v>5.05963140345</v>
-      </c>
-      <c r="L12" t="n" s="8">
-        <v>200.13400441242</v>
-      </c>
-      <c r="M12" t="n" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N12" t="n" s="8">
-        <v>-200.13400441242</v>
-      </c>
-      <c r="O12" t="n" s="8">
-        <v>261.78191782704</v>
-      </c>
-      <c r="P12" t="n" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" t="n" s="8">
+      <c r="I12" s="2">
+        <v>5.0596314034500001</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5.0596314034500001</v>
+      </c>
+      <c r="L12" s="2">
+        <v>200.13400441242001</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>-200.13400441242001</v>
+      </c>
+      <c r="O12" s="2">
+        <v>261.78191782703999</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
         <v>299.97360745442995</v>
       </c>
-      <c r="R12" t="n" s="8">
-        <v>461.90455228125</v>
-      </c>
-      <c r="S12" t="n" s="8">
-        <v>99.83960304201</v>
-      </c>
-      <c r="T12" t="n" s="8">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="R12" s="2">
+        <v>461.90455228125001</v>
+      </c>
+      <c r="S12" s="2">
+        <v>99.839603042009998</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -783,7 +1099,7 @@
       <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="n" s="9">
+      <c r="E13" s="2">
         <v>11.206954999999999</v>
       </c>
       <c r="F13" t="s">
@@ -792,44 +1108,44 @@
       <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="I13" t="n" s="9">
+      <c r="I13" s="2">
         <v>5.6034774999999994</v>
       </c>
-      <c r="J13" t="n" s="9">
+      <c r="J13" s="2">
         <v>5.6034774999999994</v>
       </c>
-      <c r="K13" t="n" s="9">
+      <c r="K13" s="2">
         <v>5.6034774999999994</v>
       </c>
-      <c r="L13" t="n" s="9">
-        <v>267.09905681015</v>
-      </c>
-      <c r="M13" t="n" s="9">
-        <v>54.16691181015</v>
-      </c>
-      <c r="N13" t="n" s="9">
+      <c r="L13" s="2">
+        <v>267.09905681014999</v>
+      </c>
+      <c r="M13" s="2">
+        <v>54.166911810149998</v>
+      </c>
+      <c r="N13" s="2">
         <v>-321.26608068984996</v>
       </c>
-      <c r="O13" t="n" s="9">
+      <c r="O13" s="2">
         <v>24.28177318985</v>
       </c>
-      <c r="P13" t="n" s="9">
+      <c r="P13" s="2">
         <v>24.28177318985</v>
       </c>
-      <c r="Q13" t="n" s="9">
+      <c r="Q13" s="2">
         <v>24.28177318985</v>
       </c>
-      <c r="R13" t="n" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="S13" t="n" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="T13" t="n" s="9">
-        <v>72.8452075</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
+        <v>72.845207500000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -842,8 +1158,8 @@
       <c r="D14" t="s">
         <v>36</v>
       </c>
-      <c r="E14" t="n" s="10">
-        <v>90.02878799999999</v>
+      <c r="E14" s="2">
+        <v>90.028787999999992</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -851,95 +1167,99 @@
       <c r="G14" t="s">
         <v>33</v>
       </c>
-      <c r="I14" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="J14" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="K14" t="n" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="L14" t="n" s="10">
-        <v>-77.84519211995999</v>
-      </c>
-      <c r="M14" t="n" s="10">
-        <v>-4.69680186996</v>
-      </c>
-      <c r="N14" t="n" s="10">
-        <v>82.54109370204</v>
-      </c>
-      <c r="O14" t="n" s="10">
-        <v>79.19562393996</v>
-      </c>
-      <c r="P14" t="n" s="10">
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>-77.845192119959989</v>
+      </c>
+      <c r="M14" s="2">
+        <v>-4.6968018699599998</v>
+      </c>
+      <c r="N14" s="2">
+        <v>82.541093702040001</v>
+      </c>
+      <c r="O14" s="2">
+        <v>79.195623939960001</v>
+      </c>
+      <c r="P14" s="2">
         <v>224.27701580196</v>
       </c>
-      <c r="Q14" t="n" s="10">
+      <c r="Q14" s="2">
         <v>224.27701580196</v>
       </c>
-      <c r="R14" t="n" s="10">
-        <v>1.35043182</v>
-      </c>
-      <c r="S14" t="n" s="10">
-        <v>219.580213932</v>
-      </c>
-      <c r="T14" t="n" s="10">
-        <v>306.818109504</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15" s="11">
-        <f>SUM(I10:I14)</f>
-      </c>
-      <c r="J15" s="11">
-        <f>SUM(J10:J14)</f>
-      </c>
-      <c r="K15" s="11">
-        <f>SUM(K10:K14)</f>
-      </c>
-      <c r="L15" s="11">
-        <f>SUM(L10:L14)</f>
-      </c>
-      <c r="M15" s="11">
-        <f>SUM(M10:M14)</f>
-      </c>
-      <c r="N15" s="11">
-        <f>SUM(N10:N14)</f>
-      </c>
-      <c r="O15" s="11">
-        <f>SUM(O10:O14)</f>
-      </c>
-      <c r="P15" s="11">
-        <f>SUM(P10:P14)</f>
-      </c>
-      <c r="Q15" s="11">
-        <f>SUM(Q10:Q14)</f>
-      </c>
-      <c r="R15" s="11">
-        <f>SUM(R10:R14)</f>
-      </c>
-      <c r="S15" s="11">
-        <f>SUM(S10:S14)</f>
-      </c>
-      <c r="T15" s="11">
-        <f>SUM(T10:T14)</f>
-      </c>
-    </row>
-    <row r="17">
+      <c r="R14" s="2">
+        <v>1.3504318200000001</v>
+      </c>
+      <c r="S14" s="2">
+        <v>219.58021393199999</v>
+      </c>
+      <c r="T14" s="2">
+        <v>306.81810950400001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I15" s="2">
+        <f t="shared" ref="I15:T15" si="0">SUM(I10:I14)</f>
+        <v>10.663108903449999</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>12.995067307359999</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>18.054698710810001</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="0"/>
+        <v>1738.6552339006898</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="0"/>
+        <v>-532.03178080605005</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="0"/>
+        <v>-1206.6244654520701</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="0"/>
+        <v>1672.5577565696499</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="0"/>
+        <v>1674.93403421677</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="0"/>
+        <v>1957.0778704980801</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="0"/>
+        <v>3119.8207905121299</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="0"/>
+        <v>1164.2931714527299</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="0"/>
+        <v>1020.4433170039999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -952,8 +1272,8 @@
       <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="E18" t="n" s="12">
-        <v>8.09549445</v>
+      <c r="E18" s="3">
+        <v>8.0954944500000003</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -961,44 +1281,44 @@
       <c r="G18" t="s">
         <v>18</v>
       </c>
-      <c r="I18" t="n" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J18" t="n" s="12">
-        <v>4.2582300807</v>
-      </c>
-      <c r="K18" t="n" s="12">
-        <v>4.2582300807</v>
-      </c>
-      <c r="L18" t="n" s="12">
-        <v>961.7690271433501</v>
-      </c>
-      <c r="M18" t="n" s="12">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4.2582300806999998</v>
+      </c>
+      <c r="K18" s="3">
+        <v>4.2582300806999998</v>
+      </c>
+      <c r="L18" s="3">
+        <v>961.76902714335006</v>
+      </c>
+      <c r="M18" s="3">
         <v>-158.74455067005002</v>
       </c>
-      <c r="N18" t="n" s="12">
-        <v>-803.0244764733001</v>
-      </c>
-      <c r="O18" t="n" s="12">
-        <v>752.719073961</v>
-      </c>
-      <c r="P18" t="n" s="12">
-        <v>809.0313333552</v>
-      </c>
-      <c r="Q18" t="n" s="12">
-        <v>803.0244764733001</v>
-      </c>
-      <c r="R18" t="n" s="12">
-        <v>1714.48810110435</v>
-      </c>
-      <c r="S18" t="n" s="12">
+      <c r="N18" s="3">
+        <v>-803.02447647330007</v>
+      </c>
+      <c r="O18" s="3">
+        <v>752.71907396100005</v>
+      </c>
+      <c r="P18" s="3">
+        <v>809.03133335519999</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>803.02447647330007</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1714.4881011043501</v>
+      </c>
+      <c r="S18" s="3">
         <v>650.28678268515</v>
       </c>
-      <c r="T18" t="n" s="12">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1011,8 +1331,8 @@
       <c r="D19" t="s">
         <v>20</v>
       </c>
-      <c r="E19" t="n" s="13">
-        <v>87.9510708</v>
+      <c r="E19" s="3">
+        <v>87.951070799999997</v>
       </c>
       <c r="F19" t="s">
         <v>21</v>
@@ -1020,44 +1340,44 @@
       <c r="G19" t="s">
         <v>22</v>
       </c>
-      <c r="I19" t="n" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="J19" t="n" s="13">
-        <v>2.2427523054</v>
-      </c>
-      <c r="K19" t="n" s="13">
-        <v>2.2427523054</v>
-      </c>
-      <c r="L19" t="n" s="13">
-        <v>224.92606846392</v>
-      </c>
-      <c r="M19" t="n" s="13">
-        <v>-352.69258901508</v>
-      </c>
-      <c r="N19" t="n" s="13">
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2.2427523053999998</v>
+      </c>
+      <c r="K19" s="3">
+        <v>2.2427523053999998</v>
+      </c>
+      <c r="L19" s="3">
+        <v>224.92606846391999</v>
+      </c>
+      <c r="M19" s="3">
+        <v>-352.69258901507999</v>
+      </c>
+      <c r="N19" s="3">
         <v>127.76652055116</v>
       </c>
-      <c r="O19" t="n" s="13">
-        <v>397.06390423368</v>
-      </c>
-      <c r="P19" t="n" s="13">
+      <c r="O19" s="3">
+        <v>397.06390423367998</v>
+      </c>
+      <c r="P19" s="3">
         <v>445.48096870908</v>
       </c>
-      <c r="Q19" t="n" s="13">
+      <c r="Q19" s="3">
         <v>435.80635092107997</v>
       </c>
-      <c r="R19" t="n" s="13">
-        <v>621.9899726976</v>
-      </c>
-      <c r="S19" t="n" s="13">
+      <c r="R19" s="3">
+        <v>621.98997269760002</v>
+      </c>
+      <c r="S19" s="3">
         <v>92.788379694</v>
       </c>
-      <c r="T19" t="n" s="13">
-        <v>563.57287147224</v>
-      </c>
-    </row>
-    <row r="20">
+      <c r="T19" s="3">
+        <v>563.57287147223997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1070,8 +1390,8 @@
       <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="E20" t="n" s="14">
-        <v>10.0</v>
+      <c r="E20" s="3">
+        <v>10</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1082,44 +1402,44 @@
       <c r="H20" t="s">
         <v>28</v>
       </c>
-      <c r="I20" t="n" s="14">
+      <c r="I20" s="3">
         <v>4.45</v>
       </c>
-      <c r="J20" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="K20" t="n" s="14">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>4.45</v>
       </c>
-      <c r="L20" t="n" s="14">
+      <c r="L20" s="3">
         <v>176.02</v>
       </c>
-      <c r="M20" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="N20" t="n" s="14">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-176.02</v>
       </c>
-      <c r="O20" t="n" s="14">
+      <c r="O20" s="3">
         <v>230.24</v>
       </c>
-      <c r="P20" t="n" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="Q20" t="n" s="14">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>263.83</v>
       </c>
-      <c r="R20" t="n" s="14">
+      <c r="R20" s="3">
         <v>406.25</v>
       </c>
-      <c r="S20" t="n" s="14">
+      <c r="S20" s="3">
         <v>87.81</v>
       </c>
-      <c r="T20" t="n" s="14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1132,8 +1452,8 @@
       <c r="D21" t="s">
         <v>32</v>
       </c>
-      <c r="E21" t="n" s="15">
-        <v>9.856637</v>
+      <c r="E21" s="3">
+        <v>9.8566369999999992</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -1141,44 +1461,44 @@
       <c r="G21" t="s">
         <v>33</v>
       </c>
-      <c r="I21" t="n" s="15">
-        <v>4.9283185</v>
-      </c>
-      <c r="J21" t="n" s="15">
-        <v>4.9283185</v>
-      </c>
-      <c r="K21" t="n" s="15">
-        <v>4.9283185</v>
-      </c>
-      <c r="L21" t="n" s="15">
+      <c r="I21" s="3">
+        <v>4.9283184999999996</v>
+      </c>
+      <c r="J21" s="3">
+        <v>4.9283184999999996</v>
+      </c>
+      <c r="K21" s="3">
+        <v>4.9283184999999996</v>
+      </c>
+      <c r="L21" s="3">
         <v>234.91648231121002</v>
       </c>
-      <c r="M21" t="n" s="15">
-        <v>47.64037931121</v>
-      </c>
-      <c r="N21" t="n" s="15">
+      <c r="M21" s="3">
+        <v>47.640379311209998</v>
+      </c>
+      <c r="N21" s="3">
         <v>-282.55696018878996</v>
       </c>
-      <c r="O21" t="n" s="15">
+      <c r="O21" s="3">
         <v>21.35607968879</v>
       </c>
-      <c r="P21" t="n" s="15">
+      <c r="P21" s="3">
         <v>21.35607968879</v>
       </c>
-      <c r="Q21" t="n" s="15">
+      <c r="Q21" s="3">
         <v>21.35607968879</v>
       </c>
-      <c r="R21" t="n" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="S21" t="n" s="15">
-        <v>0.0</v>
-      </c>
-      <c r="T21" t="n" s="15">
-        <v>64.0681405</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>64.068140499999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1191,8 +1511,8 @@
       <c r="D22" t="s">
         <v>36</v>
       </c>
-      <c r="E22" t="n" s="16">
-        <v>79.18128300000001</v>
+      <c r="E22" s="3">
+        <v>79.181283000000008</v>
       </c>
       <c r="F22" t="s">
         <v>37</v>
@@ -1200,95 +1520,99 @@
       <c r="G22" t="s">
         <v>33</v>
       </c>
-      <c r="I22" t="n" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="J22" t="n" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="K22" t="n" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="L22" t="n" s="16">
-        <v>-68.46567997161</v>
-      </c>
-      <c r="M22" t="n" s="16">
-        <v>-4.13088753411</v>
-      </c>
-      <c r="N22" t="n" s="16">
-        <v>72.59577569289</v>
-      </c>
-      <c r="O22" t="n" s="16">
-        <v>69.65339921661</v>
-      </c>
-      <c r="P22" t="n" s="16">
-        <v>197.25403677111</v>
-      </c>
-      <c r="Q22" t="n" s="16">
-        <v>197.25403677111</v>
-      </c>
-      <c r="R22" t="n" s="16">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>-68.465679971610001</v>
+      </c>
+      <c r="M22" s="3">
+        <v>-4.1308875341100002</v>
+      </c>
+      <c r="N22" s="3">
+        <v>72.595775692890001</v>
+      </c>
+      <c r="O22" s="3">
+        <v>69.653399216609998</v>
+      </c>
+      <c r="P22" s="3">
+        <v>197.25403677111001</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>197.25403677111001</v>
+      </c>
+      <c r="R22" s="3">
         <v>1.187719245</v>
       </c>
-      <c r="S22" t="n" s="16">
-        <v>193.123149237</v>
-      </c>
-      <c r="T22" t="n" s="16">
-        <v>269.849812464</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23" s="17">
-        <f>SUM(I18:I22)</f>
-      </c>
-      <c r="J23" s="17">
-        <f>SUM(J18:J22)</f>
-      </c>
-      <c r="K23" s="17">
-        <f>SUM(K18:K22)</f>
-      </c>
-      <c r="L23" s="17">
-        <f>SUM(L18:L22)</f>
-      </c>
-      <c r="M23" s="17">
-        <f>SUM(M18:M22)</f>
-      </c>
-      <c r="N23" s="17">
-        <f>SUM(N18:N22)</f>
-      </c>
-      <c r="O23" s="17">
-        <f>SUM(O18:O22)</f>
-      </c>
-      <c r="P23" s="17">
-        <f>SUM(P18:P22)</f>
-      </c>
-      <c r="Q23" s="17">
-        <f>SUM(Q18:Q22)</f>
-      </c>
-      <c r="R23" s="17">
-        <f>SUM(R18:R22)</f>
-      </c>
-      <c r="S23" s="17">
-        <f>SUM(S18:S22)</f>
-      </c>
-      <c r="T23" s="17">
-        <f>SUM(T18:T22)</f>
-      </c>
-    </row>
-    <row r="25">
+      <c r="S22" s="3">
+        <v>193.12314923700001</v>
+      </c>
+      <c r="T22" s="3">
+        <v>269.84981246400002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I23" s="3">
+        <f t="shared" ref="I23:T23" si="1">SUM(I18:I22)</f>
+        <v>9.3783184999999989</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="1"/>
+        <v>11.429300886099998</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="1"/>
+        <v>15.879300886099999</v>
+      </c>
+      <c r="L23" s="3">
+        <f t="shared" si="1"/>
+        <v>1529.1658979468702</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="1"/>
+        <v>-467.92764790803</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="1"/>
+        <v>-1061.2391404180401</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="1"/>
+        <v>1471.0324571000801</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="1"/>
+        <v>1473.1224185241799</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="1"/>
+        <v>1721.2709438542802</v>
+      </c>
+      <c r="R23" s="3">
+        <f t="shared" si="1"/>
+        <v>2743.9157930469501</v>
+      </c>
+      <c r="S23" s="3">
+        <f t="shared" si="1"/>
+        <v>1024.00831161615</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="1"/>
+        <v>897.49082443624002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1301,8 +1625,8 @@
       <c r="D26" t="s">
         <v>17</v>
       </c>
-      <c r="E26" t="n" s="18">
-        <v>10.0</v>
+      <c r="E26" s="1">
+        <v>10</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -1310,44 +1634,44 @@
       <c r="G26" t="s">
         <v>18</v>
       </c>
-      <c r="I26" t="n" s="18">
-        <v>0.0</v>
-      </c>
-      <c r="J26" t="n" s="18">
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
         <v>5.26</v>
       </c>
-      <c r="K26" t="n" s="18">
+      <c r="K26" s="1">
         <v>5.26</v>
       </c>
-      <c r="L26" t="n" s="18">
+      <c r="L26" s="1">
         <v>1188.03</v>
       </c>
-      <c r="M26" t="n" s="18">
+      <c r="M26" s="1">
         <v>-196.09</v>
       </c>
-      <c r="N26" t="n" s="18">
+      <c r="N26" s="1">
         <v>-991.94</v>
       </c>
-      <c r="O26" t="n" s="18">
+      <c r="O26" s="1">
         <v>929.8</v>
       </c>
-      <c r="P26" t="n" s="18">
+      <c r="P26" s="1">
         <v>999.36</v>
       </c>
-      <c r="Q26" t="n" s="18">
+      <c r="Q26" s="1">
         <v>991.94</v>
       </c>
-      <c r="R26" t="n" s="18">
+      <c r="R26" s="1">
         <v>2117.83</v>
       </c>
-      <c r="S26" t="n" s="18">
+      <c r="S26" s="1">
         <v>803.27</v>
       </c>
-      <c r="T26" t="n" s="18">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="T26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1360,7 +1684,7 @@
       <c r="D27" t="s">
         <v>20</v>
       </c>
-      <c r="E27" t="n" s="19">
+      <c r="E27" s="1">
         <v>108.642</v>
       </c>
       <c r="F27" t="s">
@@ -1369,44 +1693,44 @@
       <c r="G27" t="s">
         <v>22</v>
       </c>
-      <c r="I27" t="n" s="19">
-        <v>0.0</v>
-      </c>
-      <c r="J27" t="n" s="19">
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
         <v>2.7703709999999995</v>
       </c>
-      <c r="K27" t="n" s="19">
+      <c r="K27" s="1">
         <v>2.7703709999999995</v>
       </c>
-      <c r="L27" t="n" s="19">
+      <c r="L27" s="1">
         <v>277.8410508</v>
       </c>
-      <c r="M27" t="n" s="19">
-        <v>-435.6652842</v>
-      </c>
-      <c r="N27" t="n" s="19">
+      <c r="M27" s="1">
+        <v>-435.66528419999997</v>
+      </c>
+      <c r="N27" s="1">
         <v>157.8242334</v>
       </c>
-      <c r="O27" t="n" s="19">
-        <v>490.4751732</v>
-      </c>
-      <c r="P27" t="n" s="19">
-        <v>550.2825942</v>
-      </c>
-      <c r="Q27" t="n" s="19">
-        <v>538.3319742</v>
-      </c>
-      <c r="R27" t="n" s="19">
-        <v>768.316224</v>
-      </c>
-      <c r="S27" t="n" s="19">
+      <c r="O27" s="1">
+        <v>490.47517319999997</v>
+      </c>
+      <c r="P27" s="1">
+        <v>550.28259419999995</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>538.33197419999999</v>
+      </c>
+      <c r="R27" s="1">
+        <v>768.31622400000003</v>
+      </c>
+      <c r="S27" s="1">
         <v>114.61730999999999</v>
       </c>
-      <c r="T27" t="n" s="19">
+      <c r="T27" s="1">
         <v>696.1562075999999</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -1419,8 +1743,8 @@
       <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="E28" t="n" s="20">
-        <v>12.35255</v>
+      <c r="E28" s="1">
+        <v>12.352550000000001</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1431,44 +1755,44 @@
       <c r="H28" t="s">
         <v>28</v>
       </c>
-      <c r="I28" t="n" s="20">
-        <v>5.49688475</v>
-      </c>
-      <c r="J28" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="K28" t="n" s="20">
-        <v>5.49688475</v>
-      </c>
-      <c r="L28" t="n" s="20">
+      <c r="I28" s="1">
+        <v>5.4968847500000004</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>5.4968847500000004</v>
+      </c>
+      <c r="L28" s="1">
         <v>217.4295851</v>
       </c>
-      <c r="M28" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="N28" t="n" s="20">
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+      <c r="N28" s="1">
         <v>-217.4295851</v>
       </c>
-      <c r="O28" t="n" s="20">
-        <v>284.4051112</v>
-      </c>
-      <c r="P28" t="n" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Q28" t="n" s="20">
+      <c r="O28" s="1">
+        <v>284.40511120000002</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1">
         <v>325.89732664999997</v>
       </c>
-      <c r="R28" t="n" s="20">
-        <v>501.82234375</v>
-      </c>
-      <c r="S28" t="n" s="20">
+      <c r="R28" s="1">
+        <v>501.82234375000002</v>
+      </c>
+      <c r="S28" s="1">
         <v>108.46774155</v>
       </c>
-      <c r="T28" t="n" s="20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
+      <c r="T28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1481,7 +1805,7 @@
       <c r="D29" t="s">
         <v>32</v>
       </c>
-      <c r="E29" t="n" s="21">
+      <c r="E29" s="1">
         <v>12.175460000000001</v>
       </c>
       <c r="F29" t="s">
@@ -1490,44 +1814,44 @@
       <c r="G29" t="s">
         <v>33</v>
       </c>
-      <c r="I29" t="n" s="21">
+      <c r="I29" s="1">
         <v>6.0877300000000005</v>
       </c>
-      <c r="J29" t="n" s="21">
+      <c r="J29" s="1">
         <v>6.0877300000000005</v>
       </c>
-      <c r="K29" t="n" s="21">
+      <c r="K29" s="1">
         <v>6.0877300000000005</v>
       </c>
-      <c r="L29" t="n" s="21">
-        <v>290.1817560818</v>
-      </c>
-      <c r="M29" t="n" s="21">
+      <c r="L29" s="1">
+        <v>290.18175608180002</v>
+      </c>
+      <c r="M29" s="1">
         <v>58.848016081800004</v>
       </c>
-      <c r="N29" t="n" s="21">
+      <c r="N29" s="1">
         <v>-349.0298939182</v>
       </c>
-      <c r="O29" t="n" s="21">
+      <c r="O29" s="1">
         <v>26.380203918200003</v>
       </c>
-      <c r="P29" t="n" s="21">
+      <c r="P29" s="1">
         <v>26.380203918200003</v>
       </c>
-      <c r="Q29" t="n" s="21">
+      <c r="Q29" s="1">
         <v>26.380203918200003</v>
       </c>
-      <c r="R29" t="n" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="S29" t="n" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="T29" t="n" s="21">
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
         <v>79.14049</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1540,7 +1864,7 @@
       <c r="D30" t="s">
         <v>36</v>
       </c>
-      <c r="E30" t="n" s="22">
+      <c r="E30" s="1">
         <v>97.80907599999999</v>
       </c>
       <c r="F30" t="s">
@@ -1549,90 +1873,94 @@
       <c r="G30" t="s">
         <v>33</v>
       </c>
-      <c r="I30" t="n" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="J30" t="n" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="K30" t="n" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="L30" t="n" s="22">
-        <v>-84.57257374491999</v>
-      </c>
-      <c r="M30" t="n" s="22">
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-84.572573744919993</v>
+      </c>
+      <c r="M30" s="1">
         <v>-5.1026994949199995</v>
       </c>
-      <c r="N30" t="n" s="22">
-        <v>89.67429514908</v>
-      </c>
-      <c r="O30" t="n" s="22">
-        <v>86.03970988491999</v>
-      </c>
-      <c r="P30" t="n" s="22">
-        <v>243.65903585892</v>
-      </c>
-      <c r="Q30" t="n" s="22">
-        <v>243.65903585892</v>
-      </c>
-      <c r="R30" t="n" s="22">
+      <c r="N30" s="1">
+        <v>89.674295149079995</v>
+      </c>
+      <c r="O30" s="1">
+        <v>86.039709884919986</v>
+      </c>
+      <c r="P30" s="1">
+        <v>243.65903585891999</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>243.65903585891999</v>
+      </c>
+      <c r="R30" s="1">
         <v>1.46713614</v>
       </c>
-      <c r="S30" t="n" s="22">
+      <c r="S30" s="1">
         <v>238.55633636399997</v>
       </c>
-      <c r="T30" t="n" s="22">
+      <c r="T30" s="1">
         <v>333.33333100799996</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31" s="23">
-        <f>SUM(I26:I30)</f>
-      </c>
-      <c r="J31" s="23">
-        <f>SUM(J26:J30)</f>
-      </c>
-      <c r="K31" s="23">
-        <f>SUM(K26:K30)</f>
-      </c>
-      <c r="L31" s="23">
-        <f>SUM(L26:L30)</f>
-      </c>
-      <c r="M31" s="23">
-        <f>SUM(M26:M30)</f>
-      </c>
-      <c r="N31" s="23">
-        <f>SUM(N26:N30)</f>
-      </c>
-      <c r="O31" s="23">
-        <f>SUM(O26:O30)</f>
-      </c>
-      <c r="P31" s="23">
-        <f>SUM(P26:P30)</f>
-      </c>
-      <c r="Q31" s="23">
-        <f>SUM(Q26:Q30)</f>
-      </c>
-      <c r="R31" s="23">
-        <f>SUM(R26:R30)</f>
-      </c>
-      <c r="S31" s="23">
-        <f>SUM(S26:S30)</f>
-      </c>
-      <c r="T31" s="23">
-        <f>SUM(T26:T30)</f>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I31" s="1">
+        <f t="shared" ref="I31:T31" si="2">SUM(I26:I30)</f>
+        <v>11.58461475</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="2"/>
+        <v>14.118100999999999</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="2"/>
+        <v>19.614985749999999</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="2"/>
+        <v>1888.90981823688</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" si="2"/>
+        <v>-578.00996761312001</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="2"/>
+        <v>-1310.9009504691201</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="2"/>
+        <v>1817.10019820312</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" si="2"/>
+        <v>1819.6818339771203</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="2"/>
+        <v>2126.2085406271199</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="2"/>
+        <v>3389.4357038900002</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" si="2"/>
+        <v>1264.9113879139998</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" si="2"/>
+        <v>1108.630028608</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>